--- a/data/particles.xlsx
+++ b/data/particles.xlsx
@@ -8,20 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CGGT Programs\CIS5650\hw01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65560FF4-C770-4B8E-BBD1-1F98EFDE889F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5155CAA6-920F-45A2-8E88-6D797679198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1215" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="2820" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +87,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,16 +114,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -907,6 +950,375 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Fps Coherent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> to Scattered Uniform Cells</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.0147115737905696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98766192547313991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99913158627042675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97058103399566809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97936951335764733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98236253227003356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9567403061117955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98879067042973523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0324290111913461</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1612240022586273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2435089578234952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4308463965195672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4128176253819764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-764B-4C44-B0C3-78C27A12E4A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1799769711"/>
+        <c:axId val="1799770671"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1799769711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1799770671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1799770671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1799769711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -944,6 +1356,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1460,20 +1912,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1493,6 +2461,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14B0BC2-3303-8101-518F-630D9CC58CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1764,15 +2768,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -1796,8 +2800,12 @@
       <c r="D2" s="1">
         <v>2071.2800000000002</v>
       </c>
+      <c r="F2" s="2" cm="1">
+        <f t="array" ref="F2:F14" xml:space="preserve"> D2:D14 / C2:C14</f>
+        <v>1.0147115737905696</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>200</v>
       </c>
@@ -1810,8 +2818,11 @@
       <c r="D3" s="1">
         <v>2100.5100000000002</v>
       </c>
+      <c r="F3" s="2">
+        <v>0.98766192547313991</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>500</v>
       </c>
@@ -1824,8 +2835,11 @@
       <c r="D4" s="1">
         <v>2082.4499999999998</v>
       </c>
+      <c r="F4" s="2">
+        <v>0.99913158627042675</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
@@ -1838,8 +2852,11 @@
       <c r="D5" s="1">
         <v>2061.3200000000002</v>
       </c>
+      <c r="F5" s="2">
+        <v>0.97058103399566809</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
@@ -1852,8 +2869,11 @@
       <c r="D6" s="1">
         <v>2065.0300000000002</v>
       </c>
+      <c r="F6" s="2">
+        <v>0.97936951335764733</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5000</v>
       </c>
@@ -1866,8 +2886,11 @@
       <c r="D7" s="1">
         <v>1879.79</v>
       </c>
+      <c r="F7" s="2">
+        <v>0.98236253227003356</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10000</v>
       </c>
@@ -1880,8 +2903,11 @@
       <c r="D8" s="1">
         <v>1832.77</v>
       </c>
+      <c r="F8" s="2">
+        <v>0.9567403061117955</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20000</v>
       </c>
@@ -1894,8 +2920,11 @@
       <c r="D9" s="1">
         <v>1856.85</v>
       </c>
+      <c r="F9" s="2">
+        <v>0.98879067042973523</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>50000</v>
       </c>
@@ -1908,8 +2937,11 @@
       <c r="D10" s="1">
         <v>1794.31</v>
       </c>
+      <c r="F10" s="2">
+        <v>1.0324290111913461</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>100000</v>
       </c>
@@ -1922,8 +2954,11 @@
       <c r="D11" s="1">
         <v>1604.08</v>
       </c>
+      <c r="F11" s="2">
+        <v>1.1612240022586273</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>200000</v>
       </c>
@@ -1936,8 +2971,11 @@
       <c r="D12" s="1">
         <v>905.99699999999996</v>
       </c>
+      <c r="F12" s="2">
+        <v>1.2435089578234952</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>500000</v>
       </c>
@@ -1950,8 +2988,11 @@
       <c r="D13" s="1">
         <v>350.596</v>
       </c>
+      <c r="F13" s="2">
+        <v>1.4308463965195672</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1000000</v>
       </c>
@@ -1963,6 +3004,9 @@
       </c>
       <c r="D14" s="1">
         <v>107.771</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.4128176253819764</v>
       </c>
     </row>
   </sheetData>
